--- a/BPS_FH_Dataset/11/chords.xlsx
+++ b/BPS_FH_Dataset/11/chords.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13644"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="213">
   <si>
     <t>B-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,10 +763,6 @@
   </si>
   <si>
     <t>A-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1257,15 +1253,15 @@
   <dimension ref="A1:G422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G307" sqref="G307"/>
+      <selection activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>-1</v>
       </c>
@@ -1288,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -1311,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>18</v>
       </c>
@@ -1334,7 +1330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -1357,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -1380,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -1403,7 +1399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>26</v>
       </c>
@@ -1426,7 +1422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>28</v>
       </c>
@@ -1449,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -1472,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -1495,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>34</v>
       </c>
@@ -1518,7 +1514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>36</v>
       </c>
@@ -1541,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -1564,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44</v>
       </c>
@@ -1587,7 +1583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>48</v>
       </c>
@@ -1610,7 +1606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>52</v>
       </c>
@@ -1633,7 +1629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>54</v>
       </c>
@@ -1656,7 +1652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>55</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>56</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>57</v>
       </c>
@@ -1725,7 +1721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>58</v>
       </c>
@@ -1748,7 +1744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>59</v>
       </c>
@@ -1771,7 +1767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>60</v>
       </c>
@@ -1794,7 +1790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>62</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>64</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>66</v>
       </c>
@@ -1863,7 +1859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>68</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -1909,7 +1905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>72</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>74</v>
       </c>
@@ -1955,7 +1951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>76</v>
       </c>
@@ -1978,7 +1974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>77</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>78</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>79</v>
       </c>
@@ -2047,7 +2043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>80</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>84</v>
       </c>
@@ -2093,7 +2089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>99</v>
       </c>
@@ -2116,7 +2112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>100</v>
       </c>
@@ -2139,7 +2135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>110</v>
       </c>
@@ -2162,7 +2158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>111</v>
       </c>
@@ -2185,7 +2181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>112</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>114</v>
       </c>
@@ -2231,7 +2227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>115</v>
       </c>
@@ -2254,7 +2250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>116</v>
       </c>
@@ -2277,7 +2273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>120</v>
       </c>
@@ -2300,7 +2296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>122</v>
       </c>
@@ -2323,7 +2319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>124</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>126</v>
       </c>
@@ -2369,7 +2365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>128</v>
       </c>
@@ -2392,7 +2388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>130</v>
       </c>
@@ -2415,7 +2411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>132</v>
       </c>
@@ -2438,7 +2434,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>138</v>
       </c>
@@ -2461,7 +2457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>139</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>140</v>
       </c>
@@ -2507,7 +2503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>142</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>143</v>
       </c>
@@ -2553,7 +2549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>144</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>146</v>
       </c>
@@ -2599,7 +2595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>148</v>
       </c>
@@ -2622,7 +2618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>152</v>
       </c>
@@ -2645,7 +2641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>154</v>
       </c>
@@ -2668,7 +2664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>156</v>
       </c>
@@ -2691,7 +2687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>158</v>
       </c>
@@ -2714,7 +2710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>160</v>
       </c>
@@ -2737,7 +2733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>162</v>
       </c>
@@ -2760,7 +2756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>164</v>
       </c>
@@ -2783,7 +2779,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>170</v>
       </c>
@@ -2806,7 +2802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>171</v>
       </c>
@@ -2829,7 +2825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>172</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>176</v>
       </c>
@@ -2875,7 +2871,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>180</v>
       </c>
@@ -2898,7 +2894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>184</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>186.5</v>
       </c>
@@ -2944,7 +2940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>188</v>
       </c>
@@ -2967,7 +2963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>189.5</v>
       </c>
@@ -2990,7 +2986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>190</v>
       </c>
@@ -3013,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>190.5</v>
       </c>
@@ -3036,7 +3032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>191</v>
       </c>
@@ -3059,7 +3055,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>191.5</v>
       </c>
@@ -3082,7 +3078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>192</v>
       </c>
@@ -3105,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>192.5</v>
       </c>
@@ -3128,7 +3124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>193</v>
       </c>
@@ -3151,7 +3147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>193.5</v>
       </c>
@@ -3174,7 +3170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>194</v>
       </c>
@@ -3197,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>194.5</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>195</v>
       </c>
@@ -3243,7 +3239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>195.5</v>
       </c>
@@ -3266,7 +3262,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>196</v>
       </c>
@@ -3289,7 +3285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>198</v>
       </c>
@@ -3312,7 +3308,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>200</v>
       </c>
@@ -3335,7 +3331,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>202</v>
       </c>
@@ -3358,7 +3354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>204</v>
       </c>
@@ -3381,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>204.5</v>
       </c>
@@ -3404,7 +3400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>205</v>
       </c>
@@ -3427,7 +3423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>205.5</v>
       </c>
@@ -3450,7 +3446,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>206</v>
       </c>
@@ -3473,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>206.5</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>207</v>
       </c>
@@ -3519,7 +3515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>207.5</v>
       </c>
@@ -3542,7 +3538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>208</v>
       </c>
@@ -3565,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>208.5</v>
       </c>
@@ -3588,7 +3584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>209</v>
       </c>
@@ -3611,7 +3607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>209.5</v>
       </c>
@@ -3634,7 +3630,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>210</v>
       </c>
@@ -3657,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>211</v>
       </c>
@@ -3680,7 +3676,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>212</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>214</v>
       </c>
@@ -3726,7 +3722,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>218</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>220</v>
       </c>
@@ -3772,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>224</v>
       </c>
@@ -3795,7 +3791,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>226</v>
       </c>
@@ -3818,7 +3814,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>228</v>
       </c>
@@ -3841,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>232</v>
       </c>
@@ -3864,7 +3860,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>234</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>236</v>
       </c>
@@ -3910,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>238</v>
       </c>
@@ -3933,7 +3929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>240</v>
       </c>
@@ -3956,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>242</v>
       </c>
@@ -3979,7 +3975,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>244</v>
       </c>
@@ -4002,7 +3998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>252</v>
       </c>
@@ -4025,7 +4021,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>260</v>
       </c>
@@ -4048,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>261</v>
       </c>
@@ -4071,7 +4067,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>262</v>
       </c>
@@ -4094,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>263</v>
       </c>
@@ -4117,7 +4113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>264</v>
       </c>
@@ -4140,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>266</v>
       </c>
@@ -4163,7 +4159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>268</v>
       </c>
@@ -4186,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>271</v>
       </c>
@@ -4209,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>288</v>
       </c>
@@ -4232,7 +4228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>290</v>
       </c>
@@ -4255,7 +4251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>292</v>
       </c>
@@ -4278,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>294</v>
       </c>
@@ -4301,7 +4297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>296</v>
       </c>
@@ -4324,7 +4320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>298</v>
       </c>
@@ -4347,7 +4343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>300</v>
       </c>
@@ -4370,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>302</v>
       </c>
@@ -4393,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>304</v>
       </c>
@@ -4416,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>306</v>
       </c>
@@ -4439,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>308</v>
       </c>
@@ -4462,7 +4458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>312</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>316</v>
       </c>
@@ -4508,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>320</v>
       </c>
@@ -4531,7 +4527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>324</v>
       </c>
@@ -4554,7 +4550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>326</v>
       </c>
@@ -4577,7 +4573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>327</v>
       </c>
@@ -4600,7 +4596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>328</v>
       </c>
@@ -4623,7 +4619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>329</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>330</v>
       </c>
@@ -4669,7 +4665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>331</v>
       </c>
@@ -4692,7 +4688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>332</v>
       </c>
@@ -4715,7 +4711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>334</v>
       </c>
@@ -4738,7 +4734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>336</v>
       </c>
@@ -4761,7 +4757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>338</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>340</v>
       </c>
@@ -4807,7 +4803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>342</v>
       </c>
@@ -4830,7 +4826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>344</v>
       </c>
@@ -4853,7 +4849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>346</v>
       </c>
@@ -4876,7 +4872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>348</v>
       </c>
@@ -4899,7 +4895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>349</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>350</v>
       </c>
@@ -4945,7 +4941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>351</v>
       </c>
@@ -4968,7 +4964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>352</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>356</v>
       </c>
@@ -5014,7 +5010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>371</v>
       </c>
@@ -5037,7 +5033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>372</v>
       </c>
@@ -5060,7 +5056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>382</v>
       </c>
@@ -5083,7 +5079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>383</v>
       </c>
@@ -5106,7 +5102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>384</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>386</v>
       </c>
@@ -5152,7 +5148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>387</v>
       </c>
@@ -5175,7 +5171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>388</v>
       </c>
@@ -5198,7 +5194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>392</v>
       </c>
@@ -5221,7 +5217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>394</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>396</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>398</v>
       </c>
@@ -5290,7 +5286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>400</v>
       </c>
@@ -5313,7 +5309,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>402</v>
       </c>
@@ -5336,7 +5332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>404</v>
       </c>
@@ -5359,7 +5355,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>410</v>
       </c>
@@ -5382,7 +5378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>411</v>
       </c>
@@ -5405,7 +5401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>412</v>
       </c>
@@ -5428,7 +5424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>414</v>
       </c>
@@ -5451,7 +5447,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>415</v>
       </c>
@@ -5474,7 +5470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>416</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>418</v>
       </c>
@@ -5520,7 +5516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>420</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>424</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>426</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>428</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>430</v>
       </c>
@@ -5635,7 +5631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>432</v>
       </c>
@@ -5658,7 +5654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>434</v>
       </c>
@@ -5681,7 +5677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>436</v>
       </c>
@@ -5704,7 +5700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>442</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>443</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>444</v>
       </c>
@@ -5773,7 +5769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>448</v>
       </c>
@@ -5796,7 +5792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>452</v>
       </c>
@@ -5819,7 +5815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>456</v>
       </c>
@@ -5842,7 +5838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>458.5</v>
       </c>
@@ -5865,7 +5861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>460</v>
       </c>
@@ -5888,7 +5884,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>461.5</v>
       </c>
@@ -5911,7 +5907,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>462</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>462.5</v>
       </c>
@@ -5957,7 +5953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>463</v>
       </c>
@@ -5980,7 +5976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>463.5</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>464</v>
       </c>
@@ -6026,7 +6022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>464.5</v>
       </c>
@@ -6049,7 +6045,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>465</v>
       </c>
@@ -6072,7 +6068,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>465.5</v>
       </c>
@@ -6095,7 +6091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>466</v>
       </c>
@@ -6118,7 +6114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>466.5</v>
       </c>
@@ -6141,7 +6137,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>467</v>
       </c>
@@ -6164,7 +6160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>467.5</v>
       </c>
@@ -6187,7 +6183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>468</v>
       </c>
@@ -6210,7 +6206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>470</v>
       </c>
@@ -6233,7 +6229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>472</v>
       </c>
@@ -6256,7 +6252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>474</v>
       </c>
@@ -6279,7 +6275,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>476</v>
       </c>
@@ -6302,7 +6298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>476.5</v>
       </c>
@@ -6325,7 +6321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>477</v>
       </c>
@@ -6348,7 +6344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>477.5</v>
       </c>
@@ -6371,7 +6367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>478</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>478.5</v>
       </c>
@@ -6417,7 +6413,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>479</v>
       </c>
@@ -6440,7 +6436,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>479.5</v>
       </c>
@@ -6463,7 +6459,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>480</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>480.5</v>
       </c>
@@ -6509,7 +6505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>481</v>
       </c>
@@ -6532,7 +6528,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>481.5</v>
       </c>
@@ -6555,7 +6551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>482</v>
       </c>
@@ -6578,7 +6574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>483</v>
       </c>
@@ -6601,7 +6597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>484</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>486</v>
       </c>
@@ -6647,7 +6643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>490</v>
       </c>
@@ -6670,7 +6666,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>492</v>
       </c>
@@ -6693,7 +6689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>496</v>
       </c>
@@ -6716,7 +6712,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>498</v>
       </c>
@@ -6739,7 +6735,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>500</v>
       </c>
@@ -6762,7 +6758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>504</v>
       </c>
@@ -6785,7 +6781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>506</v>
       </c>
@@ -6808,7 +6804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>508</v>
       </c>
@@ -6831,7 +6827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>510</v>
       </c>
@@ -6854,7 +6850,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>512</v>
       </c>
@@ -6877,7 +6873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>514</v>
       </c>
@@ -6900,7 +6896,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>516</v>
       </c>
@@ -6923,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>524</v>
       </c>
@@ -6946,7 +6942,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>532</v>
       </c>
@@ -6969,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>533</v>
       </c>
@@ -6992,7 +6988,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>534</v>
       </c>
@@ -7015,7 +7011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>535</v>
       </c>
@@ -7038,7 +7034,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>536</v>
       </c>
@@ -7061,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>538</v>
       </c>
@@ -7084,7 +7080,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
         <v>540</v>
       </c>
@@ -7107,7 +7103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>543</v>
       </c>
@@ -7130,7 +7126,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>558</v>
       </c>
@@ -7153,7 +7149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>562</v>
       </c>
@@ -7176,7 +7172,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>566</v>
       </c>
@@ -7199,7 +7195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>570</v>
       </c>
@@ -7222,7 +7218,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>572</v>
       </c>
@@ -7245,7 +7241,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>574</v>
       </c>
@@ -7268,7 +7264,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>576</v>
       </c>
@@ -7291,7 +7287,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>578</v>
       </c>
@@ -7314,7 +7310,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>580</v>
       </c>
@@ -7337,7 +7333,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>582</v>
       </c>
@@ -7360,7 +7356,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>584</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>586</v>
       </c>
@@ -7406,7 +7402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>588</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>590</v>
       </c>
@@ -7452,7 +7448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>592</v>
       </c>
@@ -7475,7 +7471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>598</v>
       </c>
@@ -7498,7 +7494,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>600</v>
       </c>
@@ -7521,7 +7517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>608</v>
       </c>
@@ -7544,7 +7540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>614</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>616</v>
       </c>
@@ -7590,7 +7586,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>624</v>
       </c>
@@ -7613,7 +7609,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>630</v>
       </c>
@@ -7636,7 +7632,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>632</v>
       </c>
@@ -7659,7 +7655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>640</v>
       </c>
@@ -7682,7 +7678,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>648</v>
       </c>
@@ -7705,7 +7701,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>656</v>
       </c>
@@ -7728,7 +7724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>660</v>
       </c>
@@ -7751,7 +7747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>664</v>
       </c>
@@ -7774,7 +7770,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>672</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>676</v>
       </c>
@@ -7820,7 +7816,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>680</v>
       </c>
@@ -7843,7 +7839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>704</v>
       </c>
@@ -7866,7 +7862,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
         <v>720</v>
       </c>
@@ -7889,7 +7885,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>779</v>
       </c>
@@ -7912,7 +7908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>796</v>
       </c>
@@ -7935,7 +7931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>798</v>
       </c>
@@ -7958,7 +7954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>800</v>
       </c>
@@ -7981,7 +7977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>802</v>
       </c>
@@ -8004,7 +8000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>804</v>
       </c>
@@ -8027,7 +8023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>806</v>
       </c>
@@ -8050,7 +8046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>808</v>
       </c>
@@ -8073,7 +8069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>810</v>
       </c>
@@ -8096,7 +8092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>812</v>
       </c>
@@ -8119,7 +8115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>814</v>
       </c>
@@ -8142,7 +8138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>816</v>
       </c>
@@ -8165,7 +8161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>820</v>
       </c>
@@ -8188,7 +8184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>824</v>
       </c>
@@ -8211,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>836</v>
       </c>
@@ -8234,7 +8230,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>842</v>
       </c>
@@ -8257,7 +8253,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>843</v>
       </c>
@@ -8280,7 +8276,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>844</v>
       </c>
@@ -8303,7 +8299,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>845</v>
       </c>
@@ -8313,20 +8309,20 @@
       <c r="C307" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D307" s="1">
+        <v>5</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E307" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="F307" s="1">
         <v>1</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>846</v>
       </c>
@@ -8349,7 +8345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>847</v>
       </c>
@@ -8369,10 +8365,10 @@
         <v>1</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>848</v>
       </c>
@@ -8392,10 +8388,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>849</v>
       </c>
@@ -8415,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>850</v>
       </c>
@@ -8438,10 +8434,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>851</v>
       </c>
@@ -8449,7 +8445,7 @@
         <v>852</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D313" s="1">
         <v>5</v>
@@ -8461,10 +8457,10 @@
         <v>1</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>852</v>
       </c>
@@ -8472,7 +8468,7 @@
         <v>853</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -8487,7 +8483,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>853</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>130</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>138</v>
@@ -8507,10 +8503,10 @@
         <v>1</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>854</v>
       </c>
@@ -8524,16 +8520,16 @@
         <v>4</v>
       </c>
       <c r="E316" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F316" s="1">
+        <v>1</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F316" s="1">
-        <v>1</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>855</v>
       </c>
@@ -8541,22 +8537,22 @@
         <v>856</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D317" s="1">
         <v>7</v>
       </c>
       <c r="E317" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F317" s="1">
+        <v>0</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F317" s="1">
-        <v>0</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>856</v>
       </c>
@@ -8564,7 +8560,7 @@
         <v>858</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D318" s="1">
         <v>1</v>
@@ -8579,7 +8575,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>858</v>
       </c>
@@ -8587,10 +8583,10 @@
         <v>860</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D319" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>122</v>
@@ -8599,10 +8595,10 @@
         <v>0</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>860</v>
       </c>
@@ -8616,16 +8612,16 @@
         <v>4</v>
       </c>
       <c r="E320" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F320" s="1">
+        <v>0</v>
+      </c>
+      <c r="G320" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F320" s="1">
-        <v>0</v>
-      </c>
-      <c r="G320" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>862</v>
       </c>
@@ -8645,10 +8641,10 @@
         <v>3</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>864</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>866</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D322" s="1">
         <v>1</v>
@@ -8671,7 +8667,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>866</v>
       </c>
@@ -8679,10 +8675,10 @@
         <v>868</v>
       </c>
       <c r="C323" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>122</v>
@@ -8691,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>868</v>
       </c>
@@ -8708,16 +8704,16 @@
         <v>4</v>
       </c>
       <c r="E324" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F324" s="1">
+        <v>0</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F324" s="1">
-        <v>0</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>870</v>
       </c>
@@ -8737,10 +8733,10 @@
         <v>3</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>872</v>
       </c>
@@ -8748,7 +8744,7 @@
         <v>873</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -8763,7 +8759,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>873</v>
       </c>
@@ -8783,10 +8779,10 @@
         <v>3</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>874</v>
       </c>
@@ -8794,7 +8790,7 @@
         <v>875</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D328" s="1">
         <v>1</v>
@@ -8809,7 +8805,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>875</v>
       </c>
@@ -8829,10 +8825,10 @@
         <v>3</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>876</v>
       </c>
@@ -8840,7 +8836,7 @@
         <v>880</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D330" s="1">
         <v>1</v>
@@ -8855,7 +8851,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>880</v>
       </c>
@@ -8863,7 +8859,7 @@
         <v>895</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D331" s="1">
         <v>1</v>
@@ -8878,7 +8874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>895</v>
       </c>
@@ -8886,7 +8882,7 @@
         <v>896</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>8</v>
@@ -8901,7 +8897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>896</v>
       </c>
@@ -8909,7 +8905,7 @@
         <v>906</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>45</v>
@@ -8924,7 +8920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>906</v>
       </c>
@@ -8932,7 +8928,7 @@
         <v>907</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D334" s="1">
         <v>-7</v>
@@ -8947,7 +8943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>907</v>
       </c>
@@ -8955,7 +8951,7 @@
         <v>908</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D335" s="1">
         <v>7</v>
@@ -8970,7 +8966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>908</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>910</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D336" s="1">
         <v>1</v>
@@ -8993,7 +8989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>910</v>
       </c>
@@ -9001,7 +8997,7 @@
         <v>911</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D337" s="1">
         <v>2</v>
@@ -9016,7 +9012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>911</v>
       </c>
@@ -9024,7 +9020,7 @@
         <v>912</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D338" s="1">
         <v>5</v>
@@ -9039,7 +9035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>912</v>
       </c>
@@ -9047,7 +9043,7 @@
         <v>916</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
@@ -9062,7 +9058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>916</v>
       </c>
@@ -9070,7 +9066,7 @@
         <v>918</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D340" s="1">
         <v>4</v>
@@ -9085,7 +9081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>918</v>
       </c>
@@ -9093,7 +9089,7 @@
         <v>920</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D341" s="1">
         <v>2</v>
@@ -9108,7 +9104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>920</v>
       </c>
@@ -9116,7 +9112,7 @@
         <v>922</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D342" s="1">
         <v>5</v>
@@ -9131,7 +9127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>922</v>
       </c>
@@ -9139,7 +9135,7 @@
         <v>924</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D343" s="1">
         <v>1</v>
@@ -9154,7 +9150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>924</v>
       </c>
@@ -9162,7 +9158,7 @@
         <v>926</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D344" s="1">
         <v>6</v>
@@ -9177,7 +9173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>926</v>
       </c>
@@ -9185,7 +9181,7 @@
         <v>928</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D345" s="1">
         <v>4</v>
@@ -9200,7 +9196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>928</v>
       </c>
@@ -9208,7 +9204,7 @@
         <v>934</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D346" s="1">
         <v>7</v>
@@ -9223,7 +9219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>934</v>
       </c>
@@ -9231,7 +9227,7 @@
         <v>935</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D347" s="1">
         <v>5</v>
@@ -9246,7 +9242,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>935</v>
       </c>
@@ -9254,7 +9250,7 @@
         <v>936</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D348" s="1">
         <v>4</v>
@@ -9269,7 +9265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>936</v>
       </c>
@@ -9277,7 +9273,7 @@
         <v>938</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>68</v>
@@ -9292,7 +9288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>938</v>
       </c>
@@ -9300,7 +9296,7 @@
         <v>939</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D350" s="1">
         <v>4</v>
@@ -9315,7 +9311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>939</v>
       </c>
@@ -9323,7 +9319,7 @@
         <v>940</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>72</v>
@@ -9338,7 +9334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>940</v>
       </c>
@@ -9346,7 +9342,7 @@
         <v>942</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D352" s="1">
         <v>1</v>
@@ -9361,7 +9357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>942</v>
       </c>
@@ -9369,7 +9365,7 @@
         <v>944</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D353" s="1">
         <v>5</v>
@@ -9384,7 +9380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>944</v>
       </c>
@@ -9392,7 +9388,7 @@
         <v>948</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D354" s="1">
         <v>1</v>
@@ -9407,7 +9403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>948</v>
       </c>
@@ -9415,7 +9411,7 @@
         <v>950</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D355" s="1">
         <v>4</v>
@@ -9430,7 +9426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>950</v>
       </c>
@@ -9438,7 +9434,7 @@
         <v>952</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D356" s="1">
         <v>2</v>
@@ -9453,7 +9449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>952</v>
       </c>
@@ -9461,7 +9457,7 @@
         <v>954</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D357" s="1">
         <v>5</v>
@@ -9476,7 +9472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>954</v>
       </c>
@@ -9484,7 +9480,7 @@
         <v>956</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D358" s="1">
         <v>1</v>
@@ -9499,7 +9495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>956</v>
       </c>
@@ -9507,7 +9503,7 @@
         <v>958</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D359" s="1">
         <v>6</v>
@@ -9522,7 +9518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>958</v>
       </c>
@@ -9530,7 +9526,7 @@
         <v>960</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D360" s="1">
         <v>4</v>
@@ -9545,7 +9541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>960</v>
       </c>
@@ -9553,7 +9549,7 @@
         <v>966</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D361" s="1">
         <v>7</v>
@@ -9568,7 +9564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>966</v>
       </c>
@@ -9576,7 +9572,7 @@
         <v>967</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D362" s="1">
         <v>5</v>
@@ -9591,7 +9587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>967</v>
       </c>
@@ -9599,7 +9595,7 @@
         <v>968</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D363" s="1">
         <v>4</v>
@@ -9614,7 +9610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>968</v>
       </c>
@@ -9622,7 +9618,7 @@
         <v>972</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>68</v>
@@ -9637,7 +9633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>972</v>
       </c>
@@ -9645,7 +9641,7 @@
         <v>976</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D365" s="1">
         <v>6</v>
@@ -9660,7 +9656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>976</v>
       </c>
@@ -9668,7 +9664,7 @@
         <v>980</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>78</v>
@@ -9683,7 +9679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>980</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>982.5</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D367" s="1">
         <v>7</v>
@@ -9706,7 +9702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>982.5</v>
       </c>
@@ -9714,7 +9710,7 @@
         <v>984</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D368" s="1">
         <v>5</v>
@@ -9729,7 +9725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>984</v>
       </c>
@@ -9737,7 +9733,7 @@
         <v>985.5</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D369" s="1">
         <v>1</v>
@@ -9752,7 +9748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>985.5</v>
       </c>
@@ -9760,7 +9756,7 @@
         <v>986</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D370" s="1">
         <v>5</v>
@@ -9775,7 +9771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>986</v>
       </c>
@@ -9783,7 +9779,7 @@
         <v>986.5</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D371" s="1">
         <v>1</v>
@@ -9798,7 +9794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>986.5</v>
       </c>
@@ -9806,7 +9802,7 @@
         <v>987</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D372" s="1">
         <v>5</v>
@@ -9821,7 +9817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>987</v>
       </c>
@@ -9829,7 +9825,7 @@
         <v>987.5</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D373" s="1">
         <v>1</v>
@@ -9844,7 +9840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>987.5</v>
       </c>
@@ -9852,7 +9848,7 @@
         <v>988</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D374" s="1">
         <v>5</v>
@@ -9867,7 +9863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>988</v>
       </c>
@@ -9875,7 +9871,7 @@
         <v>988.5</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D375" s="1">
         <v>1</v>
@@ -9890,7 +9886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>988.5</v>
       </c>
@@ -9898,7 +9894,7 @@
         <v>989</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D376" s="1">
         <v>5</v>
@@ -9913,7 +9909,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>989</v>
       </c>
@@ -9921,7 +9917,7 @@
         <v>989.5</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D377" s="1">
         <v>1</v>
@@ -9936,7 +9932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>989.5</v>
       </c>
@@ -9944,7 +9940,7 @@
         <v>990</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D378" s="1">
         <v>5</v>
@@ -9959,7 +9955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>990</v>
       </c>
@@ -9967,7 +9963,7 @@
         <v>990.5</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D379" s="1">
         <v>1</v>
@@ -9982,7 +9978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>990.5</v>
       </c>
@@ -9990,7 +9986,7 @@
         <v>991</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D380" s="1">
         <v>5</v>
@@ -10005,7 +10001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>991</v>
       </c>
@@ -10013,7 +10009,7 @@
         <v>991.5</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D381" s="1">
         <v>1</v>
@@ -10028,7 +10024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>991.5</v>
       </c>
@@ -10036,7 +10032,7 @@
         <v>992</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D382" s="1">
         <v>5</v>
@@ -10051,7 +10047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>992</v>
       </c>
@@ -10059,7 +10055,7 @@
         <v>994</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D383" s="1">
         <v>1</v>
@@ -10074,7 +10070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>994</v>
       </c>
@@ -10082,7 +10078,7 @@
         <v>996</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D384" s="1">
         <v>4</v>
@@ -10097,7 +10093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>996</v>
       </c>
@@ -10105,7 +10101,7 @@
         <v>998</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D385" s="1">
         <v>2</v>
@@ -10120,7 +10116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>998</v>
       </c>
@@ -10128,7 +10124,7 @@
         <v>1000</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D386" s="1">
         <v>5</v>
@@ -10143,7 +10139,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>1000</v>
       </c>
@@ -10151,7 +10147,7 @@
         <v>1000.5</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D387" s="1">
         <v>1</v>
@@ -10166,7 +10162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>1000.5</v>
       </c>
@@ -10174,7 +10170,7 @@
         <v>1001</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D388" s="1">
         <v>5</v>
@@ -10189,7 +10185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>1001</v>
       </c>
@@ -10197,7 +10193,7 @@
         <v>1001.5</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D389" s="1">
         <v>1</v>
@@ -10212,7 +10208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>1001.5</v>
       </c>
@@ -10220,7 +10216,7 @@
         <v>1002</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D390" s="1">
         <v>5</v>
@@ -10235,7 +10231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>1002</v>
       </c>
@@ -10243,7 +10239,7 @@
         <v>1002.5</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D391" s="1">
         <v>1</v>
@@ -10258,7 +10254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>1002.5</v>
       </c>
@@ -10266,7 +10262,7 @@
         <v>1003</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D392" s="1">
         <v>5</v>
@@ -10281,7 +10277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>1003</v>
       </c>
@@ -10289,7 +10285,7 @@
         <v>1003.5</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D393" s="1">
         <v>1</v>
@@ -10304,7 +10300,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>1003.5</v>
       </c>
@@ -10312,7 +10308,7 @@
         <v>1004</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D394" s="1">
         <v>5</v>
@@ -10327,7 +10323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>1004</v>
       </c>
@@ -10335,7 +10331,7 @@
         <v>1004.5</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D395" s="1">
         <v>1</v>
@@ -10350,7 +10346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>1004.5</v>
       </c>
@@ -10358,7 +10354,7 @@
         <v>1005</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D396" s="1">
         <v>5</v>
@@ -10373,7 +10369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>1005</v>
       </c>
@@ -10381,7 +10377,7 @@
         <v>1005.5</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D397" s="1">
         <v>1</v>
@@ -10396,7 +10392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>1005.5</v>
       </c>
@@ -10404,7 +10400,7 @@
         <v>1006</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D398" s="1">
         <v>5</v>
@@ -10419,7 +10415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>1006</v>
       </c>
@@ -10427,7 +10423,7 @@
         <v>1007</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D399" s="1">
         <v>1</v>
@@ -10442,7 +10438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>1007</v>
       </c>
@@ -10450,7 +10446,7 @@
         <v>1008</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D400" s="1">
         <v>6</v>
@@ -10465,7 +10461,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>1008</v>
       </c>
@@ -10473,7 +10469,7 @@
         <v>1010</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>110</v>
@@ -10488,7 +10484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>1010</v>
       </c>
@@ -10496,7 +10492,7 @@
         <v>1014</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D402" s="1">
         <v>2</v>
@@ -10511,7 +10507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>1014</v>
       </c>
@@ -10519,7 +10515,7 @@
         <v>1016</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D403" s="1">
         <v>5</v>
@@ -10534,7 +10530,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>1016</v>
       </c>
@@ -10542,7 +10538,7 @@
         <v>1020</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D404" s="1">
         <v>1</v>
@@ -10557,7 +10553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>1020</v>
       </c>
@@ -10565,22 +10561,22 @@
         <v>1022</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D405" s="1">
         <v>2</v>
       </c>
       <c r="E405" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F405" s="1">
+        <v>1</v>
+      </c>
+      <c r="G405" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F405" s="1">
-        <v>1</v>
-      </c>
-      <c r="G405" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>1022</v>
       </c>
@@ -10588,22 +10584,22 @@
         <v>1024</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D406" s="1">
         <v>-2</v>
       </c>
       <c r="E406" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F406" s="1">
+        <v>0</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F406" s="1">
-        <v>0</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>1024</v>
       </c>
@@ -10611,7 +10607,7 @@
         <v>1028</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D407" s="1">
         <v>1</v>
@@ -10626,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>1028</v>
       </c>
@@ -10634,22 +10630,22 @@
         <v>1030</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D408" s="1">
         <v>2</v>
       </c>
       <c r="E408" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F408" s="1">
+        <v>1</v>
+      </c>
+      <c r="G408" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F408" s="1">
-        <v>1</v>
-      </c>
-      <c r="G408" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>1030</v>
       </c>
@@ -10657,7 +10653,7 @@
         <v>1032</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D409" s="1">
         <v>-2</v>
@@ -10669,10 +10665,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>1032</v>
       </c>
@@ -10680,7 +10676,7 @@
         <v>1034</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D410" s="1">
         <v>1</v>
@@ -10695,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>1034</v>
       </c>
@@ -10703,7 +10699,7 @@
         <v>1036</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D411" s="1">
         <v>7</v>
@@ -10715,10 +10711,10 @@
         <v>2</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>1036</v>
       </c>
@@ -10726,7 +10722,7 @@
         <v>1038</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D412" s="1">
         <v>1</v>
@@ -10741,7 +10737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>1038</v>
       </c>
@@ -10749,7 +10745,7 @@
         <v>1040</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D413" s="1">
         <v>-2</v>
@@ -10761,10 +10757,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>1040</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>1048</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D414" s="1">
         <v>1</v>
@@ -10787,7 +10783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>1048</v>
       </c>
@@ -10795,7 +10791,7 @@
         <v>1056</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D415" s="1">
         <v>5</v>
@@ -10807,10 +10803,10 @@
         <v>3</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>1056</v>
       </c>
@@ -10818,7 +10814,7 @@
         <v>1057</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D416" s="1">
         <v>1</v>
@@ -10833,7 +10829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>1057</v>
       </c>
@@ -10841,7 +10837,7 @@
         <v>1058</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D417" s="1">
         <v>5</v>
@@ -10853,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>1058</v>
       </c>
@@ -10864,7 +10860,7 @@
         <v>1059</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D418" s="1">
         <v>1</v>
@@ -10879,7 +10875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>1059</v>
       </c>
@@ -10887,7 +10883,7 @@
         <v>1060</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D419" s="1">
         <v>5</v>
@@ -10899,10 +10895,10 @@
         <v>0</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>1060</v>
       </c>
@@ -10910,7 +10906,7 @@
         <v>1062</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D420" s="1">
         <v>1</v>
@@ -10925,7 +10921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>1062</v>
       </c>
@@ -10933,7 +10929,7 @@
         <v>1064</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D421" s="1">
         <v>5</v>
@@ -10945,10 +10941,10 @@
         <v>0</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>1064</v>
       </c>
@@ -10956,7 +10952,7 @@
         <v>1067</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D422" s="1">
         <v>1</v>
